--- a/StructureDefinition-App1Patient.xlsx
+++ b/StructureDefinition-App1Patient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-23T18:03:14+00:00</t>
+    <t>2025-12-23T18:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-App1Patient.xlsx
+++ b/StructureDefinition-App1Patient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-23T18:12:59+00:00</t>
+    <t>2025-12-23T19:22:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-App1Patient.xlsx
+++ b/StructureDefinition-App1Patient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-23T19:22:15+00:00</t>
+    <t>2025-12-23T19:40:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-App1Patient.xlsx
+++ b/StructureDefinition-App1Patient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-23T19:40:40+00:00</t>
+    <t>2025-12-23T19:42:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-App1Patient.xlsx
+++ b/StructureDefinition-App1Patient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-23T19:42:55+00:00</t>
+    <t>2025-12-23T22:35:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-App1Patient.xlsx
+++ b/StructureDefinition-App1Patient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-23T22:35:14+00:00</t>
+    <t>2025-12-23T22:52:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-App1Patient.xlsx
+++ b/StructureDefinition-App1Patient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-23T22:52:12+00:00</t>
+    <t>2025-12-23T23:07:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-App1Patient.xlsx
+++ b/StructureDefinition-App1Patient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-23T23:07:14+00:00</t>
+    <t>2025-12-23T23:19:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-App1Patient.xlsx
+++ b/StructureDefinition-App1Patient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-23T23:19:08+00:00</t>
+    <t>2025-12-24T16:39:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-App1Patient.xlsx
+++ b/StructureDefinition-App1Patient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-24T16:39:37+00:00</t>
+    <t>2026-01-02T17:12:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-App1Patient.xlsx
+++ b/StructureDefinition-App1Patient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T17:12:00+00:00</t>
+    <t>2026-01-02T17:23:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-App1Patient.xlsx
+++ b/StructureDefinition-App1Patient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T17:23:15+00:00</t>
+    <t>2026-01-02T17:26:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-App1Patient.xlsx
+++ b/StructureDefinition-App1Patient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-02T17:26:38+00:00</t>
+    <t>2026-01-06T14:47:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-App1Patient.xlsx
+++ b/StructureDefinition-App1Patient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-06T14:47:27+00:00</t>
+    <t>2026-01-06T14:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-App1Patient.xlsx
+++ b/StructureDefinition-App1Patient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-06T14:49:39+00:00</t>
+    <t>2026-01-06T16:31:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-App1Patient.xlsx
+++ b/StructureDefinition-App1Patient.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-06T16:31:01+00:00</t>
+    <t>2026-01-06T16:33:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
